--- a/Template-TP-Praktikum-1.xlsx
+++ b/Template-TP-Praktikum-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\naba-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{649DF972-1699-4946-ABB6-1C35DBDF1B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7BFAF4-274D-4771-B747-9A59551C40C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -363,12 +363,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -376,6 +371,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -387,10 +388,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:O45"/>
+  <dimension ref="B2:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,85 +716,85 @@
     <col min="10" max="10" width="15.44140625" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="12"/>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -808,7 +809,7 @@
         <v>Electronic</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>IFERROR(VLOOKUP(MID(C6, 4,2),$L$24:$N$29,2,0), "Oceania")</f>
+        <f>IFERROR(VLOOKUP(MID(C6, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Britanic Port 1</v>
       </c>
       <c r="G6" s="4">
@@ -830,12 +831,26 @@
         <v>36000000</v>
       </c>
       <c r="L6" t="str">
-        <f>IF(E6=$K$25,IF(K6&gt;40000000, "Very Good", IF(AND(K6&lt;=40000000,K6&gt;=10000000),"Good",IF(K6&lt;10000000,"Bad"))),IF(E6=$K$26,IF(K6&gt;6000000, "Very Good", IF(AND(K6&lt;=6000000,K6&gt;=3000000),"Good",IF(K6&lt;3000000,"Bad"))),IF(E6=$K$27,IF(K6&gt;6000000, "Very Good", IF(AND(K6&lt;=6000000,K6&gt;=2000000),"Good",IF(K6&lt;2000000,"Bad"))),"Bad")))</f>
+        <f>IF(E6=$R$7,IF(K6&gt;40000000, "Very Good", IF(AND(K6&lt;=40000000,K6&gt;=10000000),"Good",IF(K6&lt;10000000,"Bad"))),IF(E6=$R$8,IF(K6&gt;6000000, "Very Good", IF(AND(K6&lt;=6000000,K6&gt;=3000000),"Good",IF(K6&lt;3000000,"Bad"))),IF(E6=$R$9,IF(K6&gt;6000000, "Very Good", IF(AND(K6&lt;=6000000,K6&gt;=2000000),"Good",IF(K6&lt;2000000,"Bad"))),"Bad")))</f>
         <v>Good</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M6" s="3" t="b">
+        <f>IF(AND(E6="Electronic",H6&lt;80),"Need to Buy",IF(AND(E6="Food and Beverage",H6&lt;180),"Need to Buy",IF(AND(E6="Others",H6&lt;40),"Need to Buy", FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" t="str">
+        <f>IF(AND(M6="Need to Buy",E6="Electronic"),"Shamsing Elec co.",IF(AND(M6="Need to Buy",E6="Food and Beverage"),"Loving hut co.",IF(AND(M6="Need to Buy",E6="Others"),"Power Three Tires co.","")))</f>
+        <v/>
+      </c>
+      <c r="S6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -850,7 +865,7 @@
         <v>Electronic</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" ref="F7:F20" si="1">IFERROR(VLOOKUP(MID(C7, 4,2),$L$24:$N$29,2,0), "Oceania")</f>
+        <f>IFERROR(VLOOKUP(MID(C7, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Britanic Port 1</v>
       </c>
       <c r="G7" s="4">
@@ -860,23 +875,40 @@
         <v>80</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" ref="I7:I20" si="2">G7-H7</f>
+        <f t="shared" ref="I7:I20" si="1">G7-H7</f>
         <v>44</v>
       </c>
       <c r="J7" s="5">
         <v>2000000</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" ref="K7:K20" si="3">I7*J7</f>
+        <f t="shared" ref="K7:K20" si="2">I7*J7</f>
         <v>88000000</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L20" si="4">IF(E7=$K$25,IF(K7&gt;40000000, "Very Good", IF(AND(K7&lt;=40000000,K7&gt;=10000000),"Good",IF(K7&lt;10000000,"Bad"))),IF(E7=$K$26,IF(K7&gt;6000000, "Very Good", IF(AND(K7&lt;=6000000,K7&gt;=3000000),"Good",IF(K7&lt;3000000,"Bad"))),IF(E7=$K$27,IF(K7&gt;6000000, "Very Good", IF(AND(K7&lt;=6000000,K7&gt;=2000000),"Good",IF(K7&lt;2000000,"Bad"))),"Bad")))</f>
+        <f>IF(E7=$R$7,IF(K7&gt;40000000, "Very Good", IF(AND(K7&lt;=40000000,K7&gt;=10000000),"Good",IF(K7&lt;10000000,"Bad"))),IF(E7=$R$8,IF(K7&gt;6000000, "Very Good", IF(AND(K7&lt;=6000000,K7&gt;=3000000),"Good",IF(K7&lt;3000000,"Bad"))),IF(E7=$R$9,IF(K7&gt;6000000, "Very Good", IF(AND(K7&lt;=6000000,K7&gt;=2000000),"Good",IF(K7&lt;2000000,"Bad"))),"Bad")))</f>
         <v>Very Good</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M7" s="3" t="b">
+        <f t="shared" ref="M7:M20" si="3">IF(AND(E7="Electronic",H7&lt;80),"Need to Buy",IF(AND(E7="Food and Beverage",H7&lt;180),"Need to Buy",IF(AND(E7="Others",H7&lt;40),"Need to Buy", FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ref="N7:N20" si="4">IF(AND(M7="Need to Buy",E7="Electronic"),"Shamsing Elec co.",IF(AND(M7="Need to Buy",E7="Food and Beverage"),"Loving hut co.",IF(AND(M7="Need to Buy",E7="Others"),"Power Three Tires co.","")))</f>
+        <v/>
+      </c>
+      <c r="R7" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -891,7 +923,7 @@
         <v>Food and Beverage</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C8, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Alaska Port 2</v>
       </c>
       <c r="G8" s="4">
@@ -901,23 +933,40 @@
         <v>196</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>304</v>
       </c>
       <c r="J8" s="5">
         <v>50000</v>
       </c>
       <c r="K8" s="5">
+        <f t="shared" si="2"/>
+        <v>15200000</v>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(E8=$R$7,IF(K8&gt;40000000, "Very Good", IF(AND(K8&lt;=40000000,K8&gt;=10000000),"Good",IF(K8&lt;10000000,"Bad"))),IF(E8=$R$8,IF(K8&gt;6000000, "Very Good", IF(AND(K8&lt;=6000000,K8&gt;=3000000),"Good",IF(K8&lt;3000000,"Bad"))),IF(E8=$R$9,IF(K8&gt;6000000, "Very Good", IF(AND(K8&lt;=6000000,K8&gt;=2000000),"Good",IF(K8&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Very Good</v>
+      </c>
+      <c r="M8" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>15200000</v>
-      </c>
-      <c r="L8" t="str">
+        <v>0</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="4"/>
-        <v>Very Good</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="R8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -932,7 +981,7 @@
         <v>Food and Beverage</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C9, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Alaska Port 1</v>
       </c>
       <c r="G9" s="4">
@@ -942,23 +991,40 @@
         <v>198</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="J9" s="5">
         <v>120000</v>
       </c>
       <c r="K9" s="5">
+        <f t="shared" si="2"/>
+        <v>12960000</v>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(E9=$R$7,IF(K9&gt;40000000, "Very Good", IF(AND(K9&lt;=40000000,K9&gt;=10000000),"Good",IF(K9&lt;10000000,"Bad"))),IF(E9=$R$8,IF(K9&gt;6000000, "Very Good", IF(AND(K9&lt;=6000000,K9&gt;=3000000),"Good",IF(K9&lt;3000000,"Bad"))),IF(E9=$R$9,IF(K9&gt;6000000, "Very Good", IF(AND(K9&lt;=6000000,K9&gt;=2000000),"Good",IF(K9&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Very Good</v>
+      </c>
+      <c r="M9" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>12960000</v>
-      </c>
-      <c r="L9" t="str">
+        <v>0</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="4"/>
-        <v>Very Good</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="R9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -973,7 +1039,7 @@
         <v>Electronic</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C10, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Britanic Port 2</v>
       </c>
       <c r="G10" s="4">
@@ -983,23 +1049,37 @@
         <v>156</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J10" s="5">
         <v>250000</v>
       </c>
       <c r="K10" s="5">
+        <f t="shared" si="2"/>
+        <v>10000000</v>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(E10=$R$7,IF(K10&gt;40000000, "Very Good", IF(AND(K10&lt;=40000000,K10&gt;=10000000),"Good",IF(K10&lt;10000000,"Bad"))),IF(E10=$R$8,IF(K10&gt;6000000, "Very Good", IF(AND(K10&lt;=6000000,K10&gt;=3000000),"Good",IF(K10&lt;3000000,"Bad"))),IF(E10=$R$9,IF(K10&gt;6000000, "Very Good", IF(AND(K10&lt;=6000000,K10&gt;=2000000),"Good",IF(K10&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Good</v>
+      </c>
+      <c r="M10" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="L10" t="str">
+        <v>0</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="4"/>
-        <v>Good</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="S10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -1014,7 +1094,7 @@
         <v>Others</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C11, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Oceania</v>
       </c>
       <c r="G11" s="4">
@@ -1024,23 +1104,37 @@
         <v>114</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J11" s="5">
         <v>100000</v>
       </c>
       <c r="K11" s="5">
+        <f t="shared" si="2"/>
+        <v>2000000</v>
+      </c>
+      <c r="L11" t="str">
+        <f>IF(E11=$R$7,IF(K11&gt;40000000, "Very Good", IF(AND(K11&lt;=40000000,K11&gt;=10000000),"Good",IF(K11&lt;10000000,"Bad"))),IF(E11=$R$8,IF(K11&gt;6000000, "Very Good", IF(AND(K11&lt;=6000000,K11&gt;=3000000),"Good",IF(K11&lt;3000000,"Bad"))),IF(E11=$R$9,IF(K11&gt;6000000, "Very Good", IF(AND(K11&lt;=6000000,K11&gt;=2000000),"Good",IF(K11&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Good</v>
+      </c>
+      <c r="M11" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>2000000</v>
-      </c>
-      <c r="L11" t="str">
+        <v>0</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="4"/>
-        <v>Good</v>
-      </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="S11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -1055,7 +1149,7 @@
         <v>Food and Beverage</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C12, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Alaska Port 1</v>
       </c>
       <c r="G12" s="4">
@@ -1065,23 +1159,30 @@
         <v>96</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="J12" s="5">
         <v>160000</v>
       </c>
       <c r="K12" s="5">
+        <f t="shared" si="2"/>
+        <v>32000000</v>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(E12=$R$7,IF(K12&gt;40000000, "Very Good", IF(AND(K12&lt;=40000000,K12&gt;=10000000),"Good",IF(K12&lt;10000000,"Bad"))),IF(E12=$R$8,IF(K12&gt;6000000, "Very Good", IF(AND(K12&lt;=6000000,K12&gt;=3000000),"Good",IF(K12&lt;3000000,"Bad"))),IF(E12=$R$9,IF(K12&gt;6000000, "Very Good", IF(AND(K12&lt;=6000000,K12&gt;=2000000),"Good",IF(K12&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Very Good</v>
+      </c>
+      <c r="M12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>32000000</v>
-      </c>
-      <c r="L12" t="str">
+        <v>Need to Buy</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="4"/>
-        <v>Very Good</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+        <v>Loving hut co.</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -1096,7 +1197,7 @@
         <v>Electronic</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C13, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Britanic Port 2</v>
       </c>
       <c r="G13" s="4">
@@ -1106,23 +1207,30 @@
         <v>132</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J13" s="5">
         <v>300000</v>
       </c>
       <c r="K13" s="5">
+        <f t="shared" si="2"/>
+        <v>5400000</v>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(E13=$R$7,IF(K13&gt;40000000, "Very Good", IF(AND(K13&lt;=40000000,K13&gt;=10000000),"Good",IF(K13&lt;10000000,"Bad"))),IF(E13=$R$8,IF(K13&gt;6000000, "Very Good", IF(AND(K13&lt;=6000000,K13&gt;=3000000),"Good",IF(K13&lt;3000000,"Bad"))),IF(E13=$R$9,IF(K13&gt;6000000, "Very Good", IF(AND(K13&lt;=6000000,K13&gt;=2000000),"Good",IF(K13&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Bad</v>
+      </c>
+      <c r="M13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>5400000</v>
-      </c>
-      <c r="L13" t="str">
+        <v>0</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="4"/>
-        <v>Bad</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -1137,7 +1245,7 @@
         <v>Food and Beverage</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C14, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Alaska Port 2</v>
       </c>
       <c r="G14" s="4">
@@ -1147,23 +1255,30 @@
         <v>114</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>318</v>
       </c>
       <c r="J14" s="5">
         <v>40000</v>
       </c>
       <c r="K14" s="5">
+        <f t="shared" si="2"/>
+        <v>12720000</v>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(E14=$R$7,IF(K14&gt;40000000, "Very Good", IF(AND(K14&lt;=40000000,K14&gt;=10000000),"Good",IF(K14&lt;10000000,"Bad"))),IF(E14=$R$8,IF(K14&gt;6000000, "Very Good", IF(AND(K14&lt;=6000000,K14&gt;=3000000),"Good",IF(K14&lt;3000000,"Bad"))),IF(E14=$R$9,IF(K14&gt;6000000, "Very Good", IF(AND(K14&lt;=6000000,K14&gt;=2000000),"Good",IF(K14&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Very Good</v>
+      </c>
+      <c r="M14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>12720000</v>
-      </c>
-      <c r="L14" t="str">
+        <v>Need to Buy</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="4"/>
-        <v>Very Good</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+        <v>Loving hut co.</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -1178,7 +1293,7 @@
         <v>Electronic</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C15, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Britanic Port 1</v>
       </c>
       <c r="G15" s="4">
@@ -1188,23 +1303,30 @@
         <v>78</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J15" s="5">
         <v>300000</v>
       </c>
       <c r="K15" s="5">
+        <f t="shared" si="2"/>
+        <v>2400000</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(E15=$R$7,IF(K15&gt;40000000, "Very Good", IF(AND(K15&lt;=40000000,K15&gt;=10000000),"Good",IF(K15&lt;10000000,"Bad"))),IF(E15=$R$8,IF(K15&gt;6000000, "Very Good", IF(AND(K15&lt;=6000000,K15&gt;=3000000),"Good",IF(K15&lt;3000000,"Bad"))),IF(E15=$R$9,IF(K15&gt;6000000, "Very Good", IF(AND(K15&lt;=6000000,K15&gt;=2000000),"Good",IF(K15&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Bad</v>
+      </c>
+      <c r="M15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>2400000</v>
-      </c>
-      <c r="L15" t="str">
+        <v>Need to Buy</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="4"/>
-        <v>Bad</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+        <v>Shamsing Elec co.</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -1219,7 +1341,7 @@
         <v>Others</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C16, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Oceania</v>
       </c>
       <c r="G16" s="4">
@@ -1229,21 +1351,28 @@
         <v>46</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="J16" s="5">
         <v>60000</v>
       </c>
       <c r="K16" s="5">
+        <f t="shared" si="2"/>
+        <v>6960000</v>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(E16=$R$7,IF(K16&gt;40000000, "Very Good", IF(AND(K16&lt;=40000000,K16&gt;=10000000),"Good",IF(K16&lt;10000000,"Bad"))),IF(E16=$R$8,IF(K16&gt;6000000, "Very Good", IF(AND(K16&lt;=6000000,K16&gt;=3000000),"Good",IF(K16&lt;3000000,"Bad"))),IF(E16=$R$9,IF(K16&gt;6000000, "Very Good", IF(AND(K16&lt;=6000000,K16&gt;=2000000),"Good",IF(K16&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Very Good</v>
+      </c>
+      <c r="M16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>6960000</v>
-      </c>
-      <c r="L16" t="str">
+        <v>0</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="4"/>
-        <v>Very Good</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
@@ -1260,7 +1389,7 @@
         <v>Food and Beverage</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C17, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Alaska Port 2</v>
       </c>
       <c r="G17" s="4">
@@ -1270,21 +1399,28 @@
         <v>148</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="J17" s="5">
         <v>20000</v>
       </c>
       <c r="K17" s="5">
+        <f t="shared" si="2"/>
+        <v>5800000</v>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(E17=$R$7,IF(K17&gt;40000000, "Very Good", IF(AND(K17&lt;=40000000,K17&gt;=10000000),"Good",IF(K17&lt;10000000,"Bad"))),IF(E17=$R$8,IF(K17&gt;6000000, "Very Good", IF(AND(K17&lt;=6000000,K17&gt;=3000000),"Good",IF(K17&lt;3000000,"Bad"))),IF(E17=$R$9,IF(K17&gt;6000000, "Very Good", IF(AND(K17&lt;=6000000,K17&gt;=2000000),"Good",IF(K17&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Good</v>
+      </c>
+      <c r="M17" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>5800000</v>
-      </c>
-      <c r="L17" t="str">
+        <v>Need to Buy</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="4"/>
-        <v>Good</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>Loving hut co.</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
@@ -1301,7 +1437,7 @@
         <v>Others</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C18, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Oceania</v>
       </c>
       <c r="G18" s="4">
@@ -1311,21 +1447,28 @@
         <v>34</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J18" s="5">
         <v>400000</v>
       </c>
       <c r="K18" s="5">
+        <f t="shared" si="2"/>
+        <v>2400000</v>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(E18=$R$7,IF(K18&gt;40000000, "Very Good", IF(AND(K18&lt;=40000000,K18&gt;=10000000),"Good",IF(K18&lt;10000000,"Bad"))),IF(E18=$R$8,IF(K18&gt;6000000, "Very Good", IF(AND(K18&lt;=6000000,K18&gt;=3000000),"Good",IF(K18&lt;3000000,"Bad"))),IF(E18=$R$9,IF(K18&gt;6000000, "Very Good", IF(AND(K18&lt;=6000000,K18&gt;=2000000),"Good",IF(K18&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Good</v>
+      </c>
+      <c r="M18" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>2400000</v>
-      </c>
-      <c r="L18" t="str">
+        <v>Need to Buy</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="4"/>
-        <v>Good</v>
-      </c>
-      <c r="M18" s="3"/>
+        <v>Power Three Tires co.</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
@@ -1342,7 +1485,7 @@
         <v>Electronic</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C19, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Britanic Port 2</v>
       </c>
       <c r="G19" s="4">
@@ -1352,21 +1495,28 @@
         <v>20</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J19" s="5">
         <v>400000</v>
       </c>
       <c r="K19" s="5">
+        <f t="shared" si="2"/>
+        <v>4800000</v>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(E19=$R$7,IF(K19&gt;40000000, "Very Good", IF(AND(K19&lt;=40000000,K19&gt;=10000000),"Good",IF(K19&lt;10000000,"Bad"))),IF(E19=$R$8,IF(K19&gt;6000000, "Very Good", IF(AND(K19&lt;=6000000,K19&gt;=3000000),"Good",IF(K19&lt;3000000,"Bad"))),IF(E19=$R$9,IF(K19&gt;6000000, "Very Good", IF(AND(K19&lt;=6000000,K19&gt;=2000000),"Good",IF(K19&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Bad</v>
+      </c>
+      <c r="M19" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>4800000</v>
-      </c>
-      <c r="L19" t="str">
+        <v>Need to Buy</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="4"/>
-        <v>Bad</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>Shamsing Elec co.</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
@@ -1383,7 +1533,7 @@
         <v>Electronic</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(VLOOKUP(MID(C20, 4,2),$S$6:$U$11,2,0), "Oceania")</f>
         <v>Britanic Port 1</v>
       </c>
       <c r="G20" s="4">
@@ -1393,165 +1543,146 @@
         <v>14</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J20" s="5">
         <v>5000000</v>
       </c>
       <c r="K20" s="5">
+        <f t="shared" si="2"/>
+        <v>20000000</v>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(E20=$R$7,IF(K20&gt;40000000, "Very Good", IF(AND(K20&lt;=40000000,K20&gt;=10000000),"Good",IF(K20&lt;10000000,"Bad"))),IF(E20=$R$8,IF(K20&gt;6000000, "Very Good", IF(AND(K20&lt;=6000000,K20&gt;=3000000),"Good",IF(K20&lt;3000000,"Bad"))),IF(E20=$R$9,IF(K20&gt;6000000, "Very Good", IF(AND(K20&lt;=6000000,K20&gt;=2000000),"Good",IF(K20&lt;2000000,"Bad"))),"Bad")))</f>
+        <v>Good</v>
+      </c>
+      <c r="M20" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>20000000</v>
-      </c>
-      <c r="L20" t="str">
+        <v>Need to Buy</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="4"/>
-        <v>Good</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>Shamsing Elec co.</v>
+      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16">
+        <f>MAX($K$6:$K$20)</f>
+        <v>88000000</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="K23" s="16">
+        <f>_xlfn.MAXIFS($K$6:$K$20,$E$6:$E$20,"Others",$L$6:$L$20,"Good")</f>
+        <v>2400000</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L24" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="7"/>
+      <c r="K24" s="16">
+        <f>MIN($K$6:$K$20)</f>
+        <v>2000000</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K25" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="7"/>
+      <c r="K25" s="16">
+        <f>_xlfn.MINIFS($K$6:$K$20,$C$6:$C$20,"*1")</f>
+        <v>2400000</v>
+      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K26" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" s="7"/>
+      <c r="K26" s="16">
+        <f>SUM($K$6:$K$20)</f>
+        <v>256640000</v>
+      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K27" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N27" s="7"/>
+      <c r="K27" s="16">
+        <f>AVERAGE($K$6:$K$20)</f>
+        <v>17109333.333333332</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L28" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
@@ -1582,35 +1713,35 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="B2:N2"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1687,7 +1818,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="15">
+      <c r="B13" s="6">
         <v>2000000</v>
       </c>
       <c r="C13" t="str">
